--- a/data/excel/sensitivity_analysis.xlsx
+++ b/data/excel/sensitivity_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C32F4B-7B8A-EB4B-929D-77760717DE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC5CEE-AC48-F048-83D1-2A0D1CE00C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="2680" windowWidth="28300" windowHeight="15860" activeTab="1" xr2:uid="{1538D60C-DE6D-8845-94A3-4888FFFE8141}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="28300" windowHeight="15860" xr2:uid="{1538D60C-DE6D-8845-94A3-4888FFFE8141}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,13 +214,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3034A2C-791B-9742-9EEF-C2E9D7F5A751}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -668,7 +685,7 @@
       <c r="B8" s="1">
         <v>0.5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.52</v>
       </c>
       <c r="D8" s="1">
@@ -880,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D117016-E5D8-F54C-B2AE-588981837E18}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -903,7 +920,7 @@
       <c r="B3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.6</v>
       </c>
       <c r="D3" s="1">

--- a/data/excel/sensitivity_analysis.xlsx
+++ b/data/excel/sensitivity_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC5CEE-AC48-F048-83D1-2A0D1CE00C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200044DF-6CA8-F845-A9A6-6637D9456813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="28300" windowHeight="15860" xr2:uid="{1538D60C-DE6D-8845-94A3-4888FFFE8141}"/>
   </bookViews>
@@ -258,11 +258,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +581,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -590,14 +590,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="H1" t="s">
         <v>4</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="B8" s="1">
         <v>0.5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.52</v>
       </c>
       <c r="D8" s="1">
@@ -734,15 +734,48 @@
         <v>183</v>
       </c>
     </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
+        <v>2.7</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+      <c r="D13">
+        <v>-0.3</v>
+      </c>
+      <c r="E13">
+        <v>-7.6</v>
+      </c>
+    </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="H15" t="s">
         <v>8</v>
       </c>
@@ -920,7 +953,7 @@
       <c r="B3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.6</v>
       </c>
       <c r="D3" s="1">
